--- a/metrics/R2/average & upto/Edema macular diabético.xlsx
+++ b/metrics/R2/average & upto/Edema macular diabético.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5849583745572264</v>
+        <v>0.520826802819404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5849583745572264</v>
+        <v>0.520826802819404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5849583745572264</v>
+        <v>0.520826802819404</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9974956333193694</v>
+        <v>0.9842473319114119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9974483641854327</v>
+        <v>0.9842124720269846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9973651835029288</v>
+        <v>0.9843543545330812</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9979451062328329</v>
+        <v>0.9805656291373547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9979516655731558</v>
+        <v>0.9818457315958974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9979376792639542</v>
+        <v>0.9819120278650615</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.948408527402629</v>
+        <v>0.9383761088187267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9499698659815471</v>
+        <v>0.9380402106415976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9464634090600258</v>
+        <v>0.939156476935492</v>
       </c>
     </row>
   </sheetData>
